--- a/biology/Médecine/1812_en_santé_et_médecine/1812_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1812_en_santé_et_médecine/1812_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1812_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1812_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1812 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1812_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1812_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier : première parution du The New England Journal of Medicine[1].
-21 janvier : John Parkinson et son père James, dans un article lu devant la Medical and Chirurgical Society of London (en), décrivent pour la première fois l'appendicite et la péritonite[2].
-Après 1812 : disparition de l'école provisoire de médecine de Mayence, qui remplaçait la faculté de médecine supprimée en 1798 avec l'ensemble de l'université[3].
-James Barry, né sous le nom de Margaret Ann Bulkley, devient la première femme à obtenir son son doctorat en médecine de l'University of Edinburgh Medical School[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier : première parution du The New England Journal of Medicine.
+21 janvier : John Parkinson et son père James, dans un article lu devant la Medical and Chirurgical Society of London (en), décrivent pour la première fois l'appendicite et la péritonite.
+Après 1812 : disparition de l'école provisoire de médecine de Mayence, qui remplaçait la faculté de médecine supprimée en 1798 avec l'ensemble de l'université.
+James Barry, né sous le nom de Margaret Ann Bulkley, devient la première femme à obtenir son son doctorat en médecine de l'University of Edinburgh Medical School.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1812_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1812_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Benjamin Rush : Medical Inquiries and Observations upon the Diseases of the Mind, (Recherches et observations médicales sur les maladies de l'esprit ), Philadelphie, le premier manuel de psychiatrie américain.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1812_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1812_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Daniel Drake, Discourses delivered by appointment, before the Cincinnati Medical Library Association, January 9th and 10th, 1852, Moore &amp; Andreson, 1852 (présentation en ligne)
